--- a/biology/Biologie cellulaire et moléculaire/Stanley_Cohen_(biochimiste)/Stanley_Cohen_(biochimiste).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Stanley_Cohen_(biochimiste)/Stanley_Cohen_(biochimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stanley Cohen, né le 17 novembre 1922 à Brooklyn à New York aux États-Unis et mort le 5 février 2020 à Nashville (Tennessee)[1], est un biologiste américain, spécialisé en biologie cellulaire qui a obtenu le prix Nobel de physiologie ou médecine avec Rita Levi-Montalcini en 1986.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stanley Cohen, né le 17 novembre 1922 à Brooklyn à New York aux États-Unis et mort le 5 février 2020 à Nashville (Tennessee), est un biologiste américain, spécialisé en biologie cellulaire qui a obtenu le prix Nobel de physiologie ou médecine avec Rita Levi-Montalcini en 1986.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanley Cohen soutient sa thèse de biochimie en 1948 de l'université du Michigan. Il intègre ensuite le laboratoire de Rita Levi-Montalcini à l'université Washington de Saint-Louis où il réalisera d'importantes découvertes sur la croissance cellulaire. Il devient ensuite professeur à l'université Vanderbilt à Nashville en 1959.
 Stanley Cohen reçoit en 1986 le prix Albert-Lasker pour la recherche médicale fondamentale et avec Rita Levi-Montalcini le prix Nobel de physiologie ou médecine 1986 pour leurs travaux communs.
@@ -543,7 +557,9 @@
           <t>Apports scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanley Cohen a travaillé à l'isolation et à la caractérisation du facteur de croissance nerveuse (NGF) et du facteur de croissance épidermique (EGF) dans les années 1950. Dès lors ses travaux se sont intéressés à l'étude des facteurs de croissance cellulaires et à leurs rôles dans le développement des cancers.
 </t>
@@ -574,7 +590,9 @@
           <t>Prix et distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1981 : prix Wolf de médecine
 1985 : prix Gairdner
